--- a/Arquivos/CUSTOS E INVESTIMENTOS02.xlsx
+++ b/Arquivos/CUSTOS E INVESTIMENTOS02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizh\OneDrive\Documentos\GitHub\Controle_financeiro\Arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC1E6F0-454F-46AF-A57D-4DDE1C75B373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B6AC9D-45E3-4751-B27A-FC44072E78C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="396" yWindow="372" windowWidth="22992" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OUTROS GASTOS" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -583,7 +583,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+    <sheetView topLeftCell="A439" workbookViewId="0">
       <selection activeCell="G460" sqref="G460"/>
     </sheetView>
   </sheetViews>
@@ -11601,9 +11601,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
